--- a/US_SF.xlsx
+++ b/US_SF.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/Ultrasound_validity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{324642A9-388C-4488-B3DC-E7197A0F97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240D28DC-30CF-48CF-B1D1-F686E3423A36}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{7C19BF25-A3A3-485D-9B2C-0A837C56D209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429EA215-1E4A-437B-83F5-EECC2427C3CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="205">
   <si>
     <t>SF </t>
   </si>
@@ -626,6 +626,33 @@
   <si>
     <t>Residual Mass (%)*2</t>
   </si>
+  <si>
+    <t>iliac_Crest_US1</t>
+  </si>
+  <si>
+    <t>iliac_Crest_C</t>
+  </si>
+  <si>
+    <t>iliac_Crest_US2</t>
+  </si>
+  <si>
+    <t>Front_Thigh_C</t>
+  </si>
+  <si>
+    <t>Front_Thigh_US1</t>
+  </si>
+  <si>
+    <t>Front_Thigh_US2</t>
+  </si>
+  <si>
+    <t>Medial_Calf_C</t>
+  </si>
+  <si>
+    <t>Medial_Calf_US1</t>
+  </si>
+  <si>
+    <t>Medial_Calf_US2</t>
+  </si>
 </sst>
 </file>
 
@@ -828,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -929,6 +956,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -41564,13 +41594,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41602,13 +41632,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41640,13 +41670,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41678,13 +41708,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41716,13 +41746,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41754,13 +41784,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41792,13 +41822,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41830,13 +41860,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -53543,10 +53573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D08D2-9649-40C8-B978-59AA3F39D8EF}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53582,7 +53612,7 @@
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -53595,7 +53625,7 @@
         <v>97</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>111</v>
@@ -53625,13 +53655,13 @@
         <v>119</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>123</v>
@@ -53652,29 +53682,31 @@
         <v>128</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="36">
+        <v>31</v>
+      </c>
       <c r="C2" s="9">
         <v>88.64</v>
       </c>
@@ -53764,7 +53796,9 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="36">
+        <v>28</v>
+      </c>
       <c r="C3" s="13">
         <v>61.36</v>
       </c>
@@ -53854,7 +53888,9 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="36">
+        <v>30</v>
+      </c>
       <c r="C4" s="13">
         <v>73.599999999999994</v>
       </c>
@@ -53944,7 +53980,9 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="36">
+        <v>25</v>
+      </c>
       <c r="C5" s="13">
         <v>85.5</v>
       </c>
@@ -54034,7 +54072,9 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="36">
+        <v>25</v>
+      </c>
       <c r="C6" s="13">
         <v>84.1</v>
       </c>
@@ -54124,7 +54164,9 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="36">
+        <v>24</v>
+      </c>
       <c r="C7" s="13">
         <v>63.2</v>
       </c>
@@ -54214,7 +54256,9 @@
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="36">
+        <v>25</v>
+      </c>
       <c r="C8" s="13">
         <v>56.8</v>
       </c>
@@ -54304,7 +54348,9 @@
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="36">
+        <v>30</v>
+      </c>
       <c r="C9" s="13">
         <v>92.6</v>
       </c>
@@ -54394,7 +54440,9 @@
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="36">
+        <v>25</v>
+      </c>
       <c r="C10" s="13">
         <v>113.64</v>
       </c>
@@ -54484,7 +54532,9 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="36">
+        <v>25</v>
+      </c>
       <c r="C11" s="13">
         <v>105</v>
       </c>
@@ -54574,7 +54624,9 @@
       <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="36">
+        <v>24</v>
+      </c>
       <c r="C12" s="13">
         <v>54.5</v>
       </c>
@@ -54664,7 +54716,9 @@
       <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="36">
+        <v>25</v>
+      </c>
       <c r="C13" s="13">
         <v>70.5</v>
       </c>
@@ -54754,7 +54808,9 @@
       <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="36">
+        <v>25</v>
+      </c>
       <c r="C14" s="13">
         <v>76.8</v>
       </c>
@@ -54844,7 +54900,9 @@
       <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="36">
+        <v>25</v>
+      </c>
       <c r="C15" s="13">
         <v>54.1</v>
       </c>
@@ -54934,7 +54992,9 @@
       <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="36">
+        <v>25</v>
+      </c>
       <c r="C16" s="13">
         <v>70.599999999999994</v>
       </c>
@@ -55024,7 +55084,9 @@
       <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="36">
+        <v>26</v>
+      </c>
       <c r="C17" s="13">
         <v>78.599999999999994</v>
       </c>
@@ -55114,7 +55176,9 @@
       <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="36">
+        <v>25</v>
+      </c>
       <c r="C18" s="13">
         <v>93.6</v>
       </c>
@@ -55204,7 +55268,9 @@
       <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="36">
+        <v>25</v>
+      </c>
       <c r="C19" s="13">
         <v>75.5</v>
       </c>
@@ -55294,7 +55360,9 @@
       <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="36">
+        <v>24</v>
+      </c>
       <c r="C20" s="13">
         <v>54</v>
       </c>
@@ -55384,7 +55452,9 @@
       <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="36">
+        <v>24</v>
+      </c>
       <c r="C21" s="13">
         <v>92.3</v>
       </c>
@@ -55474,7 +55544,9 @@
       <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="36">
+        <v>24</v>
+      </c>
       <c r="C22" s="13">
         <v>65.5</v>
       </c>
@@ -55564,7 +55636,9 @@
       <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="36">
+        <v>27</v>
+      </c>
       <c r="C23" s="13">
         <v>128</v>
       </c>
@@ -55654,7 +55728,9 @@
       <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="36">
+        <v>26</v>
+      </c>
       <c r="C24" s="13">
         <v>61.8</v>
       </c>
@@ -55744,7 +55820,9 @@
       <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="36">
+        <v>24</v>
+      </c>
       <c r="C25" s="13">
         <v>77.3</v>
       </c>
@@ -55834,7 +55912,9 @@
       <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="36">
+        <v>25</v>
+      </c>
       <c r="C26" s="17">
         <v>49.5</v>
       </c>
@@ -55924,7 +56004,9 @@
       <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="36">
+        <v>25</v>
+      </c>
       <c r="C27" s="13">
         <v>81.8</v>
       </c>
@@ -56014,7 +56096,9 @@
       <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="36">
+        <v>29</v>
+      </c>
       <c r="C28" s="13">
         <v>88.8</v>
       </c>
@@ -56104,7 +56188,9 @@
       <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="36">
+        <v>24</v>
+      </c>
       <c r="C29" s="13">
         <v>65.599999999999994</v>
       </c>
@@ -56194,7 +56280,9 @@
       <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="36">
+        <v>26</v>
+      </c>
       <c r="C30" s="13">
         <v>86.3</v>
       </c>
@@ -56284,7 +56372,9 @@
       <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="36">
+        <v>25</v>
+      </c>
       <c r="C31" s="13">
         <v>65</v>
       </c>
@@ -56374,7 +56464,9 @@
       <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="36">
+        <v>26</v>
+      </c>
       <c r="C32" s="13">
         <v>80</v>
       </c>
@@ -56464,7 +56556,9 @@
       <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="36">
+        <v>27</v>
+      </c>
       <c r="C33" s="13">
         <v>60.2</v>
       </c>
@@ -56554,7 +56648,9 @@
       <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="36">
+        <v>24</v>
+      </c>
       <c r="C34" s="13">
         <v>65.2</v>
       </c>
@@ -56644,7 +56740,9 @@
       <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="36">
+        <v>24</v>
+      </c>
       <c r="C35" s="13">
         <v>59</v>
       </c>
@@ -56734,7 +56832,9 @@
       <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="36">
+        <v>24</v>
+      </c>
       <c r="C36" s="13">
         <v>66.8</v>
       </c>
@@ -56824,7 +56924,9 @@
       <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="36">
+        <v>26</v>
+      </c>
       <c r="C37" s="13">
         <v>62.7</v>
       </c>
@@ -56914,7 +57016,9 @@
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="36">
+        <v>25</v>
+      </c>
       <c r="C38" s="13">
         <v>70.7</v>
       </c>
@@ -57004,7 +57108,9 @@
       <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="36">
+        <v>25</v>
+      </c>
       <c r="C39" s="13">
         <v>67.2</v>
       </c>
@@ -57094,7 +57200,9 @@
       <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="36">
+        <v>26</v>
+      </c>
       <c r="C40" s="13">
         <v>62.7</v>
       </c>
@@ -57184,7 +57292,9 @@
       <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="36">
+        <v>24</v>
+      </c>
       <c r="C41" s="13">
         <v>53</v>
       </c>
@@ -57274,7 +57384,9 @@
       <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="36">
+        <v>26</v>
+      </c>
       <c r="C42" s="13">
         <v>74</v>
       </c>
@@ -57364,7 +57476,9 @@
       <c r="A43" s="20">
         <v>42</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="36">
+        <v>25</v>
+      </c>
       <c r="C43" s="13">
         <v>78.099999999999994</v>
       </c>
@@ -57454,7 +57568,9 @@
       <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="36">
+        <v>25</v>
+      </c>
       <c r="C44" s="13">
         <v>77.7</v>
       </c>
@@ -57544,7 +57660,9 @@
       <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="36">
+        <v>25</v>
+      </c>
       <c r="C45" s="13">
         <v>78.2</v>
       </c>
@@ -57634,7 +57752,9 @@
       <c r="A46" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="36">
+        <v>27</v>
+      </c>
       <c r="C46" s="13">
         <v>95.9</v>
       </c>
@@ -57724,7 +57844,9 @@
       <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="36">
+        <v>24</v>
+      </c>
       <c r="C47" s="13">
         <v>52</v>
       </c>
@@ -57814,7 +57936,9 @@
       <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="36">
+        <v>25</v>
+      </c>
       <c r="C48" s="13">
         <v>90.9</v>
       </c>
@@ -57904,7 +58028,9 @@
       <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="36">
+        <v>25</v>
+      </c>
       <c r="C49" s="13">
         <v>64.5</v>
       </c>
@@ -57994,7 +58120,9 @@
       <c r="A50" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="36">
+        <v>27</v>
+      </c>
       <c r="C50" s="13">
         <v>65.599999999999994</v>
       </c>
@@ -58084,7 +58212,9 @@
       <c r="A51" s="20">
         <v>50</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="36">
+        <v>27</v>
+      </c>
       <c r="C51" s="13">
         <v>85</v>
       </c>
@@ -58170,78 +58300,8 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H53">
-        <f xml:space="preserve"> CORREL(G2:G51, H2:H51)</f>
-        <v>0.84480395583865342</v>
-      </c>
-      <c r="I53" s="28">
-        <f>CORREL(G2:G51, I2:I51)</f>
-        <v>0.84860169781651673</v>
-      </c>
-      <c r="J53" s="27"/>
-      <c r="K53">
-        <f xml:space="preserve"> CORREL(J2:J51, K2:K51)</f>
-        <v>0.79657974516284225</v>
-      </c>
-      <c r="L53" s="27">
-        <f>CORREL(J2:J51, L2:L51)</f>
-        <v>0.82935132364298336</v>
-      </c>
-      <c r="N53">
-        <f xml:space="preserve"> CORREL(M2:M51, N2:N51)</f>
-        <v>0.89568344719617121</v>
-      </c>
-      <c r="O53" s="27">
-        <f>CORREL(M2:M51, O2:O51)</f>
-        <v>0.90046758565521867</v>
-      </c>
-      <c r="Q53">
-        <f xml:space="preserve"> CORREL(P2:P51, Q2:Q51)</f>
-        <v>0.74783922054600749</v>
-      </c>
-      <c r="R53" s="27">
-        <f>CORREL(P2:P51, R2:R51)</f>
-        <v>0.76720846377292817</v>
-      </c>
-      <c r="T53">
-        <f xml:space="preserve"> CORREL(S2:S51, T2:T51)</f>
-        <v>0.76683876938871842</v>
-      </c>
-      <c r="U53" s="27">
-        <f>CORREL(S2:S51, U2:U51)</f>
-        <v>0.78343776174486557</v>
-      </c>
-      <c r="W53">
-        <f xml:space="preserve"> CORREL(V2:V51, W2:W51)</f>
-        <v>0.66948035842972453</v>
-      </c>
-      <c r="X53" s="27">
-        <f>CORREL(V2:V51, X2:X51)</f>
-        <v>0.67595130832397599</v>
-      </c>
-      <c r="Z53">
-        <f xml:space="preserve"> CORREL(Y2:Y51, Z2:Z51)</f>
-        <v>0.92711159066316151</v>
-      </c>
-      <c r="AA53" s="27">
-        <f>CORREL(Y2:Y51, AA2:AA51)</f>
-        <v>0.93355181594254244</v>
-      </c>
-      <c r="AC53">
-        <f xml:space="preserve"> CORREL(AB2:AB51, AC2:AC51)</f>
-        <v>0.94675449638507814</v>
-      </c>
-      <c r="AD53" s="27">
-        <f>CORREL(AB2:AB51, AD2:AD51)</f>
-        <v>0.94318851509846924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="I56" s="29"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I55" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58817,7 +58877,7 @@
         <v>14.5</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J2:J50" si="15">I3/0.5657-2.5164</f>
+        <f t="shared" ref="J3:J50" si="15">I3/0.5657-2.5164</f>
         <v>23.11556040304048</v>
       </c>
       <c r="K3" s="15">
